--- a/public/assets/book_upload_format.xlsx
+++ b/public/assets/book_upload_format.xlsx
@@ -11,8 +11,8 @@
     <sheet name="JPPL Working" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final Print'!$A$1:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Final Print'!$B:$H</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final Print'!$A$1:$G$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Final Print'!$B:$G</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Final Print'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Qty</t>
   </si>
@@ -28,16 +28,10 @@
     <t>Rate</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
     <t>Title</t>
-  </si>
-  <si>
-    <t>NR</t>
   </si>
   <si>
     <t>Medium</t>
@@ -496,7 +490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15" customHeight="1"/>
@@ -504,102 +498,95 @@
     <col min="1" max="1" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.8984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="38.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="25" width="7.296875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.09765625" style="1" customWidth="1"/>
-    <col min="27" max="28" width="9.09765625" style="1" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="9.09765625" style="1" hidden="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.09765625" style="1"/>
+    <col min="4" max="4" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.8984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="24" width="7.296875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.09765625" style="1" customWidth="1"/>
+    <col min="26" max="27" width="9.09765625" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.09765625" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" customHeight="1">
+    <row r="1" spans="1:29" ht="15" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10">
+        <v>97</v>
+      </c>
+      <c r="E2" s="8">
+        <v>75</v>
+      </c>
+      <c r="F2" s="11">
+        <v>4901</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="15" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10">
-        <v>97</v>
-      </c>
-      <c r="F2" s="8">
-        <v>75</v>
-      </c>
-      <c r="G2" s="11">
-        <v>4901</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/book_upload_format.xlsx
+++ b/public/assets/book_upload_format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="290" windowWidth="15480" windowHeight="11020"/>
+    <workbookView xWindow="120" yWindow="285" windowWidth="15480" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Final Print" sheetId="3" r:id="rId1"/>
@@ -61,13 +61,13 @@
     <t>Author</t>
   </si>
   <si>
-    <t>Shipping</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
     <t>Ayesha Baig</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -486,31 +486,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.8984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="24" width="7.296875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.09765625" style="1" customWidth="1"/>
-    <col min="26" max="27" width="9.09765625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="24" width="7.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="1" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.09765625" style="1" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.09765625" style="1"/>
+    <col min="29" max="29" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
@@ -542,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB1" s="1">
         <v>2</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
@@ -577,10 +577,10 @@
         <v>10</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB2" s="1">
         <v>6</v>
@@ -609,13 +609,13 @@
       <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="3" max="3" width="9.09765625" style="7"/>
-    <col min="13" max="13" width="9.09765625" style="6"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="13" max="13" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A1" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -669,7 +669,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A2" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -723,7 +723,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A3" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -777,7 +777,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A4" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -831,7 +831,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A5" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -885,7 +885,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A6" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -939,7 +939,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A7" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -993,7 +993,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A8" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -1047,7 +1047,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A9" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -1101,7 +1101,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A10" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -1155,7 +1155,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="11" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A11" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -1209,7 +1209,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="12" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A12" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -1263,7 +1263,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="13" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A13" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -1317,7 +1317,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="14" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A14" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -1371,7 +1371,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="15" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A15" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -1425,7 +1425,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="16" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A16" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -1479,7 +1479,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="7" customFormat="1" ht="11.5">
+    <row r="17" spans="1:13" s="7" customFormat="1" ht="11.25">
       <c r="A17" s="5" t="e">
         <f>IF((#REF!=0)," ",#REF!)</f>
         <v>#REF!</v>
@@ -1533,7 +1533,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="11.5">
+    <row r="18" spans="1:13" ht="11.25">
       <c r="A18" s="4" t="e">
         <f>IF((B18=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -1587,7 +1587,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="11.5">
+    <row r="19" spans="1:13" ht="11.25">
       <c r="A19" s="4" t="e">
         <f>IF((B19=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -1641,7 +1641,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="11.5">
+    <row r="20" spans="1:13" ht="11.25">
       <c r="A20" s="4" t="e">
         <f>IF((B20=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -1695,7 +1695,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="11.5">
+    <row r="21" spans="1:13" ht="11.25">
       <c r="A21" s="4" t="e">
         <f>IF((B21=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -1749,7 +1749,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="11.5">
+    <row r="22" spans="1:13" ht="11.25">
       <c r="A22" s="4" t="e">
         <f>IF((B22=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -1803,7 +1803,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="11.5">
+    <row r="23" spans="1:13" ht="11.25">
       <c r="A23" s="4" t="e">
         <f>IF((B23=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -1857,7 +1857,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="11.5">
+    <row r="24" spans="1:13" ht="11.25">
       <c r="A24" s="4" t="e">
         <f>IF((B24=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -1911,7 +1911,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="11.5">
+    <row r="25" spans="1:13" ht="11.25">
       <c r="A25" s="4" t="e">
         <f>IF((B25=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -1965,7 +1965,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="11.5">
+    <row r="26" spans="1:13" ht="11.25">
       <c r="A26" s="4" t="e">
         <f>IF((B26=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2019,7 +2019,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="11.5">
+    <row r="27" spans="1:13" ht="11.25">
       <c r="A27" s="4" t="e">
         <f>IF((B27=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2073,7 +2073,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="11.5">
+    <row r="28" spans="1:13" ht="11.25">
       <c r="A28" s="4" t="e">
         <f>IF((B28=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2127,7 +2127,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="11.5">
+    <row r="29" spans="1:13" ht="11.25">
       <c r="A29" s="4" t="e">
         <f>IF((B29=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2181,7 +2181,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="11.5">
+    <row r="30" spans="1:13" ht="11.25">
       <c r="A30" s="4" t="e">
         <f>IF((B30=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2235,7 +2235,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="11.5">
+    <row r="31" spans="1:13" ht="11.25">
       <c r="A31" s="4" t="e">
         <f>IF((B31=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2289,7 +2289,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="11.5">
+    <row r="32" spans="1:13" ht="11.25">
       <c r="A32" s="4" t="e">
         <f>IF((B32=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2343,7 +2343,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="11.5">
+    <row r="33" spans="1:13" ht="11.25">
       <c r="A33" s="4" t="e">
         <f>IF((B33=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2397,7 +2397,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="11.5">
+    <row r="34" spans="1:13" ht="11.25">
       <c r="A34" s="4" t="e">
         <f>IF((B34=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2451,7 +2451,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="11.5">
+    <row r="35" spans="1:13" ht="11.25">
       <c r="A35" s="4" t="e">
         <f>IF((B35=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2505,7 +2505,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="11.5">
+    <row r="36" spans="1:13" ht="11.25">
       <c r="A36" s="4" t="e">
         <f>IF((B36=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2559,7 +2559,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="11.5">
+    <row r="37" spans="1:13" ht="11.25">
       <c r="A37" s="4" t="e">
         <f>IF((B37=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2613,7 +2613,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="11.5">
+    <row r="38" spans="1:13" ht="11.25">
       <c r="A38" s="4" t="e">
         <f>IF((B38=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2667,7 +2667,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="11.5">
+    <row r="39" spans="1:13" ht="11.25">
       <c r="A39" s="4" t="e">
         <f>IF((B39=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2721,7 +2721,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="11.5">
+    <row r="40" spans="1:13" ht="11.25">
       <c r="A40" s="4" t="e">
         <f>IF((B40=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2775,7 +2775,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="11.5">
+    <row r="41" spans="1:13" ht="11.25">
       <c r="A41" s="4" t="e">
         <f>IF((B41=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2829,7 +2829,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="11.5">
+    <row r="42" spans="1:13" ht="11.25">
       <c r="A42" s="4" t="e">
         <f>IF((B42=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2883,7 +2883,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="11.5">
+    <row r="43" spans="1:13" ht="11.25">
       <c r="A43" s="4" t="e">
         <f>IF((B43=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2937,7 +2937,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="11.5">
+    <row r="44" spans="1:13" ht="11.25">
       <c r="A44" s="4" t="e">
         <f>IF((B44=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -2991,7 +2991,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="11.5">
+    <row r="45" spans="1:13" ht="11.25">
       <c r="A45" s="4" t="e">
         <f>IF((B45=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3045,7 +3045,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="11.5">
+    <row r="46" spans="1:13" ht="11.25">
       <c r="A46" s="4" t="e">
         <f>IF((B46=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3099,7 +3099,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="11.5">
+    <row r="47" spans="1:13" ht="11.25">
       <c r="A47" s="4" t="e">
         <f>IF((B47=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3153,7 +3153,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="11.5">
+    <row r="48" spans="1:13" ht="11.25">
       <c r="A48" s="4" t="e">
         <f>IF((B48=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3207,7 +3207,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="11.5">
+    <row r="49" spans="1:13" ht="11.25">
       <c r="A49" s="4" t="e">
         <f>IF((B49=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3261,7 +3261,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="11.5">
+    <row r="50" spans="1:13" ht="11.25">
       <c r="A50" s="4" t="e">
         <f>IF((B50=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3315,7 +3315,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="11.5">
+    <row r="51" spans="1:13" ht="11.25">
       <c r="A51" s="4" t="e">
         <f>IF((B51=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3369,7 +3369,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="11.5">
+    <row r="52" spans="1:13" ht="11.25">
       <c r="A52" s="4" t="e">
         <f>IF((B52=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3423,7 +3423,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="11.5">
+    <row r="53" spans="1:13" ht="11.25">
       <c r="A53" s="4" t="e">
         <f>IF((B53=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3477,7 +3477,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="11.5">
+    <row r="54" spans="1:13" ht="11.25">
       <c r="A54" s="4" t="e">
         <f>IF((B54=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3531,7 +3531,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="11.5">
+    <row r="55" spans="1:13" ht="11.25">
       <c r="A55" s="4" t="e">
         <f>IF((B55=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3585,7 +3585,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="11.5">
+    <row r="56" spans="1:13" ht="11.25">
       <c r="A56" s="4" t="e">
         <f>IF((B56=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3639,7 +3639,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="11.5">
+    <row r="57" spans="1:13" ht="11.25">
       <c r="A57" s="4" t="e">
         <f>IF((B57=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3693,7 +3693,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="11.5">
+    <row r="58" spans="1:13" ht="11.25">
       <c r="A58" s="4" t="e">
         <f>IF((B58=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3747,7 +3747,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="11.5">
+    <row r="59" spans="1:13" ht="11.25">
       <c r="A59" s="4" t="e">
         <f>IF((B59=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3801,7 +3801,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="11.5">
+    <row r="60" spans="1:13" ht="11.25">
       <c r="A60" s="4" t="e">
         <f>IF((B60=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3855,7 +3855,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="11.5">
+    <row r="61" spans="1:13" ht="11.25">
       <c r="A61" s="4" t="e">
         <f>IF((B61=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3909,7 +3909,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="11.5">
+    <row r="62" spans="1:13" ht="11.25">
       <c r="A62" s="4" t="e">
         <f>IF((B62=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -3963,7 +3963,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="11.5">
+    <row r="63" spans="1:13" ht="11.25">
       <c r="A63" s="4" t="e">
         <f>IF((B63=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4017,7 +4017,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="11.5">
+    <row r="64" spans="1:13" ht="11.25">
       <c r="A64" s="4" t="e">
         <f>IF((B64=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4071,7 +4071,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="11.5">
+    <row r="65" spans="1:13" ht="11.25">
       <c r="A65" s="4" t="e">
         <f>IF((B65=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4125,7 +4125,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="11.5">
+    <row r="66" spans="1:13" ht="11.25">
       <c r="A66" s="4" t="e">
         <f>IF((B66=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4179,7 +4179,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="11.5">
+    <row r="67" spans="1:13" ht="11.25">
       <c r="A67" s="4" t="e">
         <f>IF((B67=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4233,7 +4233,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="11.5">
+    <row r="68" spans="1:13" ht="11.25">
       <c r="A68" s="4" t="e">
         <f>IF((B68=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4287,7 +4287,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="11.5">
+    <row r="69" spans="1:13" ht="11.25">
       <c r="A69" s="4" t="e">
         <f>IF((B69=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4341,7 +4341,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="11.5">
+    <row r="70" spans="1:13" ht="11.25">
       <c r="A70" s="4" t="e">
         <f>IF((B70=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4395,7 +4395,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="11.5">
+    <row r="71" spans="1:13" ht="11.25">
       <c r="A71" s="4" t="e">
         <f>IF((B71=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4449,7 +4449,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="11.5">
+    <row r="72" spans="1:13" ht="11.25">
       <c r="A72" s="4" t="e">
         <f>IF((B72=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4503,7 +4503,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="11.5">
+    <row r="73" spans="1:13" ht="11.25">
       <c r="A73" s="4" t="e">
         <f>IF((B73=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4557,7 +4557,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="11.5">
+    <row r="74" spans="1:13" ht="11.25">
       <c r="A74" s="4" t="e">
         <f>IF((B74=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4611,7 +4611,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="11.5">
+    <row r="75" spans="1:13" ht="11.25">
       <c r="A75" s="4" t="e">
         <f>IF((B75=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4665,7 +4665,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="11.5">
+    <row r="76" spans="1:13" ht="11.25">
       <c r="A76" s="4" t="e">
         <f>IF((B76=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4719,7 +4719,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="11.5">
+    <row r="77" spans="1:13" ht="11.25">
       <c r="A77" s="4" t="e">
         <f>IF((B77=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4773,7 +4773,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="11.5">
+    <row r="78" spans="1:13" ht="11.25">
       <c r="A78" s="4" t="e">
         <f>IF((B78=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4827,7 +4827,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="11.5">
+    <row r="79" spans="1:13" ht="11.25">
       <c r="A79" s="4" t="e">
         <f>IF((B79=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4881,7 +4881,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="11.5">
+    <row r="80" spans="1:13" ht="11.25">
       <c r="A80" s="4" t="e">
         <f>IF((B80=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4935,7 +4935,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="11.5">
+    <row r="81" spans="1:13" ht="11.25">
       <c r="A81" s="4" t="e">
         <f>IF((B81=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -4989,7 +4989,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="11.5">
+    <row r="82" spans="1:13" ht="11.25">
       <c r="A82" s="4" t="e">
         <f>IF((B82=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5043,7 +5043,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="11.5">
+    <row r="83" spans="1:13" ht="11.25">
       <c r="A83" s="4" t="e">
         <f>IF((B83=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5097,7 +5097,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="11.5">
+    <row r="84" spans="1:13" ht="11.25">
       <c r="A84" s="4" t="e">
         <f>IF((B84=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5151,7 +5151,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="11.5">
+    <row r="85" spans="1:13" ht="11.25">
       <c r="A85" s="4" t="e">
         <f>IF((B85=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5205,7 +5205,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="11.5">
+    <row r="86" spans="1:13" ht="11.25">
       <c r="A86" s="4" t="e">
         <f>IF((B86=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5259,7 +5259,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="11.5">
+    <row r="87" spans="1:13" ht="11.25">
       <c r="A87" s="4" t="e">
         <f>IF((B87=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5313,7 +5313,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="11.5">
+    <row r="88" spans="1:13" ht="11.25">
       <c r="A88" s="4" t="e">
         <f>IF((B88=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5367,7 +5367,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="11.5">
+    <row r="89" spans="1:13" ht="11.25">
       <c r="A89" s="4" t="e">
         <f>IF((B89=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5421,7 +5421,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="11.5">
+    <row r="90" spans="1:13" ht="11.25">
       <c r="A90" s="4" t="e">
         <f>IF((B90=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5475,7 +5475,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="11.5">
+    <row r="91" spans="1:13" ht="11.25">
       <c r="A91" s="4" t="e">
         <f>IF((B91=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5529,7 +5529,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="11.5">
+    <row r="92" spans="1:13" ht="11.25">
       <c r="A92" s="4" t="e">
         <f>IF((B92=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5583,7 +5583,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="11.5">
+    <row r="93" spans="1:13" ht="11.25">
       <c r="A93" s="4" t="e">
         <f>IF((B93=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5637,7 +5637,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="11.5">
+    <row r="94" spans="1:13" ht="11.25">
       <c r="A94" s="4" t="e">
         <f>IF((B94=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5691,7 +5691,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="11.5">
+    <row r="95" spans="1:13" ht="11.25">
       <c r="A95" s="4" t="e">
         <f>IF((B95=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5745,7 +5745,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="11.5">
+    <row r="96" spans="1:13" ht="11.25">
       <c r="A96" s="4" t="e">
         <f>IF((B96=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5799,7 +5799,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="11.5">
+    <row r="97" spans="1:13" ht="11.25">
       <c r="A97" s="4" t="e">
         <f>IF((B97=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5853,7 +5853,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="11.5">
+    <row r="98" spans="1:13" ht="11.25">
       <c r="A98" s="4" t="e">
         <f>IF((B98=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5907,7 +5907,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="11.5">
+    <row r="99" spans="1:13" ht="11.25">
       <c r="A99" s="4" t="e">
         <f>IF((B99=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -5961,7 +5961,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="11.5">
+    <row r="100" spans="1:13" ht="11.25">
       <c r="A100" s="4" t="e">
         <f>IF((B100=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6015,7 +6015,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="11.5">
+    <row r="101" spans="1:13" ht="11.25">
       <c r="A101" s="4" t="e">
         <f>IF((B101=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6069,7 +6069,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="11.5">
+    <row r="102" spans="1:13" ht="11.25">
       <c r="A102" s="4" t="e">
         <f>IF((B102=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6123,7 +6123,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="11.5">
+    <row r="103" spans="1:13" ht="11.25">
       <c r="A103" s="4" t="e">
         <f>IF((B103=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6177,7 +6177,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="11.5">
+    <row r="104" spans="1:13" ht="11.25">
       <c r="A104" s="4" t="e">
         <f>IF((B104=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6231,7 +6231,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="11.5">
+    <row r="105" spans="1:13" ht="11.25">
       <c r="A105" s="4" t="e">
         <f>IF((B105=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6285,7 +6285,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="11.5">
+    <row r="106" spans="1:13" ht="11.25">
       <c r="A106" s="4" t="e">
         <f>IF((B106=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6339,7 +6339,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="11.5">
+    <row r="107" spans="1:13" ht="11.25">
       <c r="A107" s="4" t="e">
         <f>IF((B107=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6393,7 +6393,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="11.5">
+    <row r="108" spans="1:13" ht="11.25">
       <c r="A108" s="4" t="e">
         <f>IF((B108=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6447,7 +6447,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="11.5">
+    <row r="109" spans="1:13" ht="11.25">
       <c r="A109" s="4" t="e">
         <f>IF((B109=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6501,7 +6501,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="11.5">
+    <row r="110" spans="1:13" ht="11.25">
       <c r="A110" s="4" t="e">
         <f>IF((B110=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6555,7 +6555,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="11.5">
+    <row r="111" spans="1:13" ht="11.25">
       <c r="A111" s="4" t="e">
         <f>IF((B111=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6609,7 +6609,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="11.5">
+    <row r="112" spans="1:13" ht="11.25">
       <c r="A112" s="4" t="e">
         <f>IF((B112=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6663,7 +6663,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="11.5">
+    <row r="113" spans="1:13" ht="11.25">
       <c r="A113" s="4" t="e">
         <f>IF((B113=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6717,7 +6717,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="11.5">
+    <row r="114" spans="1:13" ht="11.25">
       <c r="A114" s="4" t="e">
         <f>IF((B114=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6771,7 +6771,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="11.5">
+    <row r="115" spans="1:13" ht="11.25">
       <c r="A115" s="4" t="e">
         <f>IF((B115=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6825,7 +6825,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="11.5">
+    <row r="116" spans="1:13" ht="11.25">
       <c r="A116" s="4" t="e">
         <f>IF((B116=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6879,7 +6879,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="11.5">
+    <row r="117" spans="1:13" ht="11.25">
       <c r="A117" s="4" t="e">
         <f>IF((B117=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6933,7 +6933,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="11.5">
+    <row r="118" spans="1:13" ht="11.25">
       <c r="A118" s="4" t="e">
         <f>IF((B118=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -6987,7 +6987,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="11.5">
+    <row r="119" spans="1:13" ht="11.25">
       <c r="A119" s="4" t="e">
         <f>IF((B119=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7041,7 +7041,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="11.5">
+    <row r="120" spans="1:13" ht="11.25">
       <c r="A120" s="4" t="e">
         <f>IF((B120=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7095,7 +7095,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="11.5">
+    <row r="121" spans="1:13" ht="11.25">
       <c r="A121" s="4" t="e">
         <f>IF((B121=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7149,7 +7149,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="11.5">
+    <row r="122" spans="1:13" ht="11.25">
       <c r="A122" s="4" t="e">
         <f>IF((B122=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7203,7 +7203,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="11.5">
+    <row r="123" spans="1:13" ht="11.25">
       <c r="A123" s="4" t="e">
         <f>IF((B123=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7257,7 +7257,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="11.5">
+    <row r="124" spans="1:13" ht="11.25">
       <c r="A124" s="4" t="e">
         <f>IF((B124=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7311,7 +7311,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="11.5">
+    <row r="125" spans="1:13" ht="11.25">
       <c r="A125" s="4" t="e">
         <f>IF((B125=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7365,7 +7365,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="11.5">
+    <row r="126" spans="1:13" ht="11.25">
       <c r="A126" s="4" t="e">
         <f>IF((B126=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7419,7 +7419,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="11.5">
+    <row r="127" spans="1:13" ht="11.25">
       <c r="A127" s="4" t="e">
         <f>IF((B127=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7473,7 +7473,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="11.5">
+    <row r="128" spans="1:13" ht="11.25">
       <c r="A128" s="4" t="e">
         <f>IF((B128=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7527,7 +7527,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="11.5">
+    <row r="129" spans="1:13" ht="11.25">
       <c r="A129" s="4" t="e">
         <f>IF((B129=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7581,7 +7581,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="11.5">
+    <row r="130" spans="1:13" ht="11.25">
       <c r="A130" s="4" t="e">
         <f>IF((B130=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7635,7 +7635,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="11.5">
+    <row r="131" spans="1:13" ht="11.25">
       <c r="A131" s="4" t="e">
         <f>IF((B131=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7689,7 +7689,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="11.5">
+    <row r="132" spans="1:13" ht="11.25">
       <c r="A132" s="4" t="e">
         <f>IF((B132=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7743,7 +7743,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="11.5">
+    <row r="133" spans="1:13" ht="11.25">
       <c r="A133" s="4" t="e">
         <f>IF((B133=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7797,7 +7797,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="11.5">
+    <row r="134" spans="1:13" ht="11.25">
       <c r="A134" s="4" t="e">
         <f>IF((B134=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7851,7 +7851,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="11.5">
+    <row r="135" spans="1:13" ht="11.25">
       <c r="A135" s="4" t="e">
         <f>IF((B135=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7905,7 +7905,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="11.5">
+    <row r="136" spans="1:13" ht="11.25">
       <c r="A136" s="4" t="e">
         <f>IF((B136=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -7959,7 +7959,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="11.5">
+    <row r="137" spans="1:13" ht="11.25">
       <c r="A137" s="4" t="e">
         <f>IF((B137=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8013,7 +8013,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="11.5">
+    <row r="138" spans="1:13" ht="11.25">
       <c r="A138" s="4" t="e">
         <f>IF((B138=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8067,7 +8067,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="11.5">
+    <row r="139" spans="1:13" ht="11.25">
       <c r="A139" s="4" t="e">
         <f>IF((B139=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8121,7 +8121,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="11.5">
+    <row r="140" spans="1:13" ht="11.25">
       <c r="A140" s="4" t="e">
         <f>IF((B140=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8175,7 +8175,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="11.5">
+    <row r="141" spans="1:13" ht="11.25">
       <c r="A141" s="4" t="e">
         <f>IF((B141=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8229,7 +8229,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="11.5">
+    <row r="142" spans="1:13" ht="11.25">
       <c r="A142" s="4" t="e">
         <f>IF((B142=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8283,7 +8283,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="11.5">
+    <row r="143" spans="1:13" ht="11.25">
       <c r="A143" s="4" t="e">
         <f>IF((B143=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8337,7 +8337,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="11.5">
+    <row r="144" spans="1:13" ht="11.25">
       <c r="A144" s="4" t="e">
         <f>IF((B144=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8391,7 +8391,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="11.5">
+    <row r="145" spans="1:13" ht="11.25">
       <c r="A145" s="4" t="e">
         <f>IF((B145=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8445,7 +8445,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="11.5">
+    <row r="146" spans="1:13" ht="11.25">
       <c r="A146" s="4" t="e">
         <f>IF((B146=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8499,7 +8499,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="11.5">
+    <row r="147" spans="1:13" ht="11.25">
       <c r="A147" s="4" t="e">
         <f>IF((B147=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8553,7 +8553,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="11.5">
+    <row r="148" spans="1:13" ht="11.25">
       <c r="A148" s="4" t="e">
         <f>IF((B148=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8607,7 +8607,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="11.5">
+    <row r="149" spans="1:13" ht="11.25">
       <c r="A149" s="4" t="e">
         <f>IF((B149=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8661,7 +8661,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="11.5">
+    <row r="150" spans="1:13" ht="11.25">
       <c r="A150" s="4" t="e">
         <f>IF((B150=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8715,7 +8715,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="11.5">
+    <row r="151" spans="1:13" ht="11.25">
       <c r="A151" s="4" t="e">
         <f>IF((B151=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8769,7 +8769,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="11.5">
+    <row r="152" spans="1:13" ht="11.25">
       <c r="A152" s="4" t="e">
         <f>IF((B152=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8823,7 +8823,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="11.5">
+    <row r="153" spans="1:13" ht="11.25">
       <c r="A153" s="4" t="e">
         <f>IF((B153=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8877,7 +8877,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="11.5">
+    <row r="154" spans="1:13" ht="11.25">
       <c r="A154" s="4" t="e">
         <f>IF((B154=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8931,7 +8931,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="11.5">
+    <row r="155" spans="1:13" ht="11.25">
       <c r="A155" s="4" t="e">
         <f>IF((B155=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -8985,7 +8985,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="11.5">
+    <row r="156" spans="1:13" ht="11.25">
       <c r="A156" s="4" t="e">
         <f>IF((B156=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9039,7 +9039,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="11.5">
+    <row r="157" spans="1:13" ht="11.25">
       <c r="A157" s="4" t="e">
         <f>IF((B157=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9093,7 +9093,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="11.5">
+    <row r="158" spans="1:13" ht="11.25">
       <c r="A158" s="4" t="e">
         <f>IF((B158=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9147,7 +9147,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="11.5">
+    <row r="159" spans="1:13" ht="11.25">
       <c r="A159" s="4" t="e">
         <f>IF((B159=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9201,7 +9201,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="11.5">
+    <row r="160" spans="1:13" ht="11.25">
       <c r="A160" s="4" t="e">
         <f>IF((B160=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9255,7 +9255,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="11.5">
+    <row r="161" spans="1:13" ht="11.25">
       <c r="A161" s="4" t="e">
         <f>IF((B161=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9309,7 +9309,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="11.5">
+    <row r="162" spans="1:13" ht="11.25">
       <c r="A162" s="4" t="e">
         <f>IF((B162=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9363,7 +9363,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="11.5">
+    <row r="163" spans="1:13" ht="11.25">
       <c r="A163" s="4" t="e">
         <f>IF((B163=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9417,7 +9417,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="11.5">
+    <row r="164" spans="1:13" ht="11.25">
       <c r="A164" s="4" t="e">
         <f>IF((B164=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9471,7 +9471,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="11.5">
+    <row r="165" spans="1:13" ht="11.25">
       <c r="A165" s="4" t="e">
         <f>IF((B165=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9525,7 +9525,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="11.5">
+    <row r="166" spans="1:13" ht="11.25">
       <c r="A166" s="4" t="e">
         <f>IF((B166=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9579,7 +9579,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="11.5">
+    <row r="167" spans="1:13" ht="11.25">
       <c r="A167" s="4" t="e">
         <f>IF((B167=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9633,7 +9633,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="11.5">
+    <row r="168" spans="1:13" ht="11.25">
       <c r="A168" s="4" t="e">
         <f>IF((B168=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9687,7 +9687,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="11.5">
+    <row r="169" spans="1:13" ht="11.25">
       <c r="A169" s="4" t="e">
         <f>IF((B169=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9741,7 +9741,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="11.5">
+    <row r="170" spans="1:13" ht="11.25">
       <c r="A170" s="4" t="e">
         <f>IF((B170=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9795,7 +9795,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="11.5">
+    <row r="171" spans="1:13" ht="11.25">
       <c r="A171" s="4" t="e">
         <f>IF((B171=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9849,7 +9849,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="11.5">
+    <row r="172" spans="1:13" ht="11.25">
       <c r="A172" s="4" t="e">
         <f>IF((B172=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9903,7 +9903,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="11.5">
+    <row r="173" spans="1:13" ht="11.25">
       <c r="A173" s="4" t="e">
         <f>IF((B173=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -9957,7 +9957,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="11.5">
+    <row r="174" spans="1:13" ht="11.25">
       <c r="A174" s="4" t="e">
         <f>IF((B174=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10011,7 +10011,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="11.5">
+    <row r="175" spans="1:13" ht="11.25">
       <c r="A175" s="4" t="e">
         <f>IF((B175=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10065,7 +10065,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="11.5">
+    <row r="176" spans="1:13" ht="11.25">
       <c r="A176" s="4" t="e">
         <f>IF((B176=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10119,7 +10119,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="11.5">
+    <row r="177" spans="1:13" ht="11.25">
       <c r="A177" s="4" t="e">
         <f>IF((B177=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10173,7 +10173,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="11.5">
+    <row r="178" spans="1:13" ht="11.25">
       <c r="A178" s="4" t="e">
         <f>IF((B178=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10227,7 +10227,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="11.5">
+    <row r="179" spans="1:13" ht="11.25">
       <c r="A179" s="4" t="e">
         <f>IF((B179=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10281,7 +10281,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="11.5">
+    <row r="180" spans="1:13" ht="11.25">
       <c r="A180" s="4" t="e">
         <f>IF((B180=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10335,7 +10335,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="11.5">
+    <row r="181" spans="1:13" ht="11.25">
       <c r="A181" s="4" t="e">
         <f>IF((B181=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10389,7 +10389,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="11.5">
+    <row r="182" spans="1:13" ht="11.25">
       <c r="A182" s="4" t="e">
         <f>IF((B182=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10443,7 +10443,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="11.5">
+    <row r="183" spans="1:13" ht="11.25">
       <c r="A183" s="4" t="e">
         <f>IF((B183=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10497,7 +10497,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="11.5">
+    <row r="184" spans="1:13" ht="11.25">
       <c r="A184" s="4" t="e">
         <f>IF((B184=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10551,7 +10551,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="11.5">
+    <row r="185" spans="1:13" ht="11.25">
       <c r="A185" s="4" t="e">
         <f>IF((B185=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10605,7 +10605,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="11.5">
+    <row r="186" spans="1:13" ht="11.25">
       <c r="A186" s="4" t="e">
         <f>IF((B186=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10659,7 +10659,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="11.5">
+    <row r="187" spans="1:13" ht="11.25">
       <c r="A187" s="4" t="e">
         <f>IF((B187=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10713,7 +10713,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="11.5">
+    <row r="188" spans="1:13" ht="11.25">
       <c r="A188" s="4" t="e">
         <f>IF((B188=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10767,7 +10767,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="11.5">
+    <row r="189" spans="1:13" ht="11.25">
       <c r="A189" s="4" t="e">
         <f>IF((B189=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10821,7 +10821,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="11.5">
+    <row r="190" spans="1:13" ht="11.25">
       <c r="A190" s="4" t="e">
         <f>IF((B190=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10875,7 +10875,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="11.5">
+    <row r="191" spans="1:13" ht="11.25">
       <c r="A191" s="4" t="e">
         <f>IF((B191=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10929,7 +10929,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="11.5">
+    <row r="192" spans="1:13" ht="11.25">
       <c r="A192" s="4" t="e">
         <f>IF((B192=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -10983,7 +10983,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="11.5">
+    <row r="193" spans="1:13" ht="11.25">
       <c r="A193" s="4" t="e">
         <f>IF((B193=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11037,7 +11037,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="11.5">
+    <row r="194" spans="1:13" ht="11.25">
       <c r="A194" s="4" t="e">
         <f>IF((B194=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11091,7 +11091,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="11.5">
+    <row r="195" spans="1:13" ht="11.25">
       <c r="A195" s="4" t="e">
         <f>IF((B195=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11145,7 +11145,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="11.5">
+    <row r="196" spans="1:13" ht="11.25">
       <c r="A196" s="4" t="e">
         <f>IF((B196=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11199,7 +11199,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="11.5">
+    <row r="197" spans="1:13" ht="11.25">
       <c r="A197" s="4" t="e">
         <f>IF((B197=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11253,7 +11253,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="11.5">
+    <row r="198" spans="1:13" ht="11.25">
       <c r="A198" s="4" t="e">
         <f>IF((B198=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11307,7 +11307,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="11.5">
+    <row r="199" spans="1:13" ht="11.25">
       <c r="A199" s="4" t="e">
         <f>IF((B199=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11361,7 +11361,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="11.5">
+    <row r="200" spans="1:13" ht="11.25">
       <c r="A200" s="4" t="e">
         <f>IF((B200=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11415,7 +11415,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="11.5">
+    <row r="201" spans="1:13" ht="11.25">
       <c r="A201" s="4" t="e">
         <f>IF((B201=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11469,7 +11469,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="11.5">
+    <row r="202" spans="1:13" ht="11.25">
       <c r="A202" s="4" t="e">
         <f>IF((B202=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11523,7 +11523,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="11.5">
+    <row r="203" spans="1:13" ht="11.25">
       <c r="A203" s="4" t="e">
         <f>IF((B203=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11577,7 +11577,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="11.5">
+    <row r="204" spans="1:13" ht="11.25">
       <c r="A204" s="4" t="e">
         <f>IF((B204=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11631,7 +11631,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="11.5">
+    <row r="205" spans="1:13" ht="11.25">
       <c r="A205" s="4" t="e">
         <f>IF((B205=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11685,7 +11685,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="11.5">
+    <row r="206" spans="1:13" ht="11.25">
       <c r="A206" s="4" t="e">
         <f>IF((B206=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11739,7 +11739,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="11.5">
+    <row r="207" spans="1:13" ht="11.25">
       <c r="A207" s="4" t="e">
         <f>IF((B207=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11793,7 +11793,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="11.5">
+    <row r="208" spans="1:13" ht="11.25">
       <c r="A208" s="4" t="e">
         <f>IF((B208=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11847,7 +11847,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="11.5">
+    <row r="209" spans="1:13" ht="11.25">
       <c r="A209" s="4" t="e">
         <f>IF((B209=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11901,7 +11901,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="11.5">
+    <row r="210" spans="1:13" ht="11.25">
       <c r="A210" s="4" t="e">
         <f>IF((B210=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -11955,7 +11955,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="11.5">
+    <row r="211" spans="1:13" ht="11.25">
       <c r="A211" s="4" t="e">
         <f>IF((B211=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12009,7 +12009,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="11.5">
+    <row r="212" spans="1:13" ht="11.25">
       <c r="A212" s="4" t="e">
         <f>IF((B212=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12063,7 +12063,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="11.5">
+    <row r="213" spans="1:13" ht="11.25">
       <c r="A213" s="4" t="e">
         <f>IF((B213=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12117,7 +12117,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="11.5">
+    <row r="214" spans="1:13" ht="11.25">
       <c r="A214" s="4" t="e">
         <f>IF((B214=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12171,7 +12171,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="11.5">
+    <row r="215" spans="1:13" ht="11.25">
       <c r="A215" s="4" t="e">
         <f>IF((B215=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12225,7 +12225,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="11.5">
+    <row r="216" spans="1:13" ht="11.25">
       <c r="A216" s="4" t="e">
         <f>IF((B216=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12279,7 +12279,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="11.5">
+    <row r="217" spans="1:13" ht="11.25">
       <c r="A217" s="4" t="e">
         <f>IF((B217=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12333,7 +12333,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="11.5">
+    <row r="218" spans="1:13" ht="11.25">
       <c r="A218" s="4" t="e">
         <f>IF((B218=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12387,7 +12387,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="11.5">
+    <row r="219" spans="1:13" ht="11.25">
       <c r="A219" s="4" t="e">
         <f>IF((B219=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12441,7 +12441,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="11.5">
+    <row r="220" spans="1:13" ht="11.25">
       <c r="A220" s="4" t="e">
         <f>IF((B220=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12495,7 +12495,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="11.5">
+    <row r="221" spans="1:13" ht="11.25">
       <c r="A221" s="4" t="e">
         <f>IF((B221=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12549,7 +12549,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="11.5">
+    <row r="222" spans="1:13" ht="11.25">
       <c r="A222" s="4" t="e">
         <f>IF((B222=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12603,7 +12603,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="11.5">
+    <row r="223" spans="1:13" ht="11.25">
       <c r="A223" s="4" t="e">
         <f>IF((B223=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12657,7 +12657,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="11.5">
+    <row r="224" spans="1:13" ht="11.25">
       <c r="A224" s="4" t="e">
         <f>IF((B224=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12711,7 +12711,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="11.5">
+    <row r="225" spans="1:13" ht="11.25">
       <c r="A225" s="4" t="e">
         <f>IF((B225=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12765,7 +12765,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="11.5">
+    <row r="226" spans="1:13" ht="11.25">
       <c r="A226" s="4" t="e">
         <f>IF((B226=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12819,7 +12819,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="11.5">
+    <row r="227" spans="1:13" ht="11.25">
       <c r="A227" s="4" t="e">
         <f>IF((B227=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12873,7 +12873,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="11.5">
+    <row r="228" spans="1:13" ht="11.25">
       <c r="A228" s="4" t="e">
         <f>IF((B228=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12927,7 +12927,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="11.5">
+    <row r="229" spans="1:13" ht="11.25">
       <c r="A229" s="4" t="e">
         <f>IF((B229=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -12981,7 +12981,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="11.5">
+    <row r="230" spans="1:13" ht="11.25">
       <c r="A230" s="4" t="e">
         <f>IF((B230=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13035,7 +13035,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="11.5">
+    <row r="231" spans="1:13" ht="11.25">
       <c r="A231" s="4" t="e">
         <f>IF((B231=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13089,7 +13089,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="11.5">
+    <row r="232" spans="1:13" ht="11.25">
       <c r="A232" s="4" t="e">
         <f>IF((B232=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13143,7 +13143,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="11.5">
+    <row r="233" spans="1:13" ht="11.25">
       <c r="A233" s="4" t="e">
         <f>IF((B233=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13197,7 +13197,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="11.5">
+    <row r="234" spans="1:13" ht="11.25">
       <c r="A234" s="4" t="e">
         <f>IF((B234=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13251,7 +13251,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="11.5">
+    <row r="235" spans="1:13" ht="11.25">
       <c r="A235" s="4" t="e">
         <f>IF((B235=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13305,7 +13305,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="11.5">
+    <row r="236" spans="1:13" ht="11.25">
       <c r="A236" s="4" t="e">
         <f>IF((B236=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13359,7 +13359,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="11.5">
+    <row r="237" spans="1:13" ht="11.25">
       <c r="A237" s="4" t="e">
         <f>IF((B237=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13413,7 +13413,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="11.5">
+    <row r="238" spans="1:13" ht="11.25">
       <c r="A238" s="4" t="e">
         <f>IF((B238=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13467,7 +13467,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="11.5">
+    <row r="239" spans="1:13" ht="11.25">
       <c r="A239" s="4" t="e">
         <f>IF((B239=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13521,7 +13521,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="11.5">
+    <row r="240" spans="1:13" ht="11.25">
       <c r="A240" s="4" t="e">
         <f>IF((B240=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13575,7 +13575,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="11.5">
+    <row r="241" spans="1:13" ht="11.25">
       <c r="A241" s="4" t="e">
         <f>IF((B241=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13629,7 +13629,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="11.5">
+    <row r="242" spans="1:13" ht="11.25">
       <c r="A242" s="4" t="e">
         <f>IF((B242=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13683,7 +13683,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="11.5">
+    <row r="243" spans="1:13" ht="11.25">
       <c r="A243" s="4" t="e">
         <f>IF((B243=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13737,7 +13737,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="11.5">
+    <row r="244" spans="1:13" ht="11.25">
       <c r="A244" s="4" t="e">
         <f>IF((B244=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13791,7 +13791,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="11.5">
+    <row r="245" spans="1:13" ht="11.25">
       <c r="A245" s="4" t="e">
         <f>IF((B245=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13845,7 +13845,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="11.5">
+    <row r="246" spans="1:13" ht="11.25">
       <c r="A246" s="4" t="e">
         <f>IF((B246=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13899,7 +13899,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="11.5">
+    <row r="247" spans="1:13" ht="11.25">
       <c r="A247" s="4" t="e">
         <f>IF((B247=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -13953,7 +13953,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="11.5">
+    <row r="248" spans="1:13" ht="11.25">
       <c r="A248" s="4" t="e">
         <f>IF((B248=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14007,7 +14007,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="11.5">
+    <row r="249" spans="1:13" ht="11.25">
       <c r="A249" s="4" t="e">
         <f>IF((B249=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14061,7 +14061,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="11.5">
+    <row r="250" spans="1:13" ht="11.25">
       <c r="A250" s="4" t="e">
         <f>IF((B250=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14115,7 +14115,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="11.5">
+    <row r="251" spans="1:13" ht="11.25">
       <c r="A251" s="4" t="e">
         <f>IF((B251=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14169,7 +14169,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="11.5">
+    <row r="252" spans="1:13" ht="11.25">
       <c r="A252" s="4" t="e">
         <f>IF((B252=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14223,7 +14223,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="11.5">
+    <row r="253" spans="1:13" ht="11.25">
       <c r="A253" s="4" t="e">
         <f>IF((B253=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14277,7 +14277,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="11.5">
+    <row r="254" spans="1:13" ht="11.25">
       <c r="A254" s="4" t="e">
         <f>IF((B254=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14331,7 +14331,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="11.5">
+    <row r="255" spans="1:13" ht="11.25">
       <c r="A255" s="4" t="e">
         <f>IF((B255=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14385,7 +14385,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="11.5">
+    <row r="256" spans="1:13" ht="11.25">
       <c r="A256" s="4" t="e">
         <f>IF((B256=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14439,7 +14439,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="11.5">
+    <row r="257" spans="1:13" ht="11.25">
       <c r="A257" s="4" t="e">
         <f>IF((B257=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14493,7 +14493,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="11.5">
+    <row r="258" spans="1:13" ht="11.25">
       <c r="A258" s="4" t="e">
         <f>IF((B258=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14547,7 +14547,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="11.5">
+    <row r="259" spans="1:13" ht="11.25">
       <c r="A259" s="4" t="e">
         <f>IF((B259=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14601,7 +14601,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="11.5">
+    <row r="260" spans="1:13" ht="11.25">
       <c r="A260" s="4" t="e">
         <f>IF((B260=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14655,7 +14655,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="11.5">
+    <row r="261" spans="1:13" ht="11.25">
       <c r="A261" s="4" t="e">
         <f>IF((B261=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14709,7 +14709,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="11.5">
+    <row r="262" spans="1:13" ht="11.25">
       <c r="A262" s="4" t="e">
         <f>IF((B262=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14763,7 +14763,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="11.5">
+    <row r="263" spans="1:13" ht="11.25">
       <c r="A263" s="4" t="e">
         <f>IF((B263=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14817,7 +14817,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="11.5">
+    <row r="264" spans="1:13" ht="11.25">
       <c r="A264" s="4" t="e">
         <f>IF((B264=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14871,7 +14871,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="11.5">
+    <row r="265" spans="1:13" ht="11.25">
       <c r="A265" s="4" t="e">
         <f>IF((B265=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14925,7 +14925,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="11.5">
+    <row r="266" spans="1:13" ht="11.25">
       <c r="A266" s="4" t="e">
         <f>IF((B266=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -14979,7 +14979,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="11.5">
+    <row r="267" spans="1:13" ht="11.25">
       <c r="A267" s="4" t="e">
         <f>IF((B267=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15033,7 +15033,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="11.5">
+    <row r="268" spans="1:13" ht="11.25">
       <c r="A268" s="4" t="e">
         <f>IF((B268=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15087,7 +15087,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="11.5">
+    <row r="269" spans="1:13" ht="11.25">
       <c r="A269" s="4" t="e">
         <f>IF((B269=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15141,7 +15141,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="11.5">
+    <row r="270" spans="1:13" ht="11.25">
       <c r="A270" s="4" t="e">
         <f>IF((B270=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15195,7 +15195,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="11.5">
+    <row r="271" spans="1:13" ht="11.25">
       <c r="A271" s="4" t="e">
         <f>IF((B271=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15249,7 +15249,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="11.5">
+    <row r="272" spans="1:13" ht="11.25">
       <c r="A272" s="4" t="e">
         <f>IF((B272=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15303,7 +15303,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="11.5">
+    <row r="273" spans="1:13" ht="11.25">
       <c r="A273" s="4" t="e">
         <f>IF((B273=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15357,7 +15357,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="11.5">
+    <row r="274" spans="1:13" ht="11.25">
       <c r="A274" s="4" t="e">
         <f>IF((B274=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15411,7 +15411,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="11.5">
+    <row r="275" spans="1:13" ht="11.25">
       <c r="A275" s="4" t="e">
         <f>IF((B275=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15465,7 +15465,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="11.5">
+    <row r="276" spans="1:13" ht="11.25">
       <c r="A276" s="4" t="e">
         <f>IF((B276=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15519,7 +15519,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="11.5">
+    <row r="277" spans="1:13" ht="11.25">
       <c r="A277" s="4" t="e">
         <f>IF((B277=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15573,7 +15573,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="11.5">
+    <row r="278" spans="1:13" ht="11.25">
       <c r="A278" s="4" t="e">
         <f>IF((B278=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15627,7 +15627,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="11.5">
+    <row r="279" spans="1:13" ht="11.25">
       <c r="A279" s="4" t="e">
         <f>IF((B279=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15681,7 +15681,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="11.5">
+    <row r="280" spans="1:13" ht="11.25">
       <c r="A280" s="4" t="e">
         <f>IF((B280=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15735,7 +15735,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="11.5">
+    <row r="281" spans="1:13" ht="11.25">
       <c r="A281" s="4" t="e">
         <f>IF((B281=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15789,7 +15789,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="11.5">
+    <row r="282" spans="1:13" ht="11.25">
       <c r="A282" s="4" t="e">
         <f>IF((B282=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15843,7 +15843,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="11.5">
+    <row r="283" spans="1:13" ht="11.25">
       <c r="A283" s="4" t="e">
         <f>IF((B283=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15897,7 +15897,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="11.5">
+    <row r="284" spans="1:13" ht="11.25">
       <c r="A284" s="4" t="e">
         <f>IF((B284=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -15951,7 +15951,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="11.5">
+    <row r="285" spans="1:13" ht="11.25">
       <c r="A285" s="4" t="e">
         <f>IF((B285=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16005,7 +16005,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="11.5">
+    <row r="286" spans="1:13" ht="11.25">
       <c r="A286" s="4" t="e">
         <f>IF((B286=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16059,7 +16059,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="11.5">
+    <row r="287" spans="1:13" ht="11.25">
       <c r="A287" s="4" t="e">
         <f>IF((B287=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16113,7 +16113,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="11.5">
+    <row r="288" spans="1:13" ht="11.25">
       <c r="A288" s="4" t="e">
         <f>IF((B288=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16167,7 +16167,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="11.5">
+    <row r="289" spans="1:13" ht="11.25">
       <c r="A289" s="4" t="e">
         <f>IF((B289=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16221,7 +16221,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="11.5">
+    <row r="290" spans="1:13" ht="11.25">
       <c r="A290" s="4" t="e">
         <f>IF((B290=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16275,7 +16275,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="11.5">
+    <row r="291" spans="1:13" ht="11.25">
       <c r="A291" s="4" t="e">
         <f>IF((B291=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16329,7 +16329,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="11.5">
+    <row r="292" spans="1:13" ht="11.25">
       <c r="A292" s="4" t="e">
         <f>IF((B292=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16383,7 +16383,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="11.5">
+    <row r="293" spans="1:13" ht="11.25">
       <c r="A293" s="4" t="e">
         <f>IF((B293=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16437,7 +16437,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="11.5">
+    <row r="294" spans="1:13" ht="11.25">
       <c r="A294" s="4" t="e">
         <f>IF((B294=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16491,7 +16491,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="11.5">
+    <row r="295" spans="1:13" ht="11.25">
       <c r="A295" s="4" t="e">
         <f>IF((B295=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16545,7 +16545,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="11.5">
+    <row r="296" spans="1:13" ht="11.25">
       <c r="A296" s="4" t="e">
         <f>IF((B296=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16599,7 +16599,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="11.5">
+    <row r="297" spans="1:13" ht="11.25">
       <c r="A297" s="4" t="e">
         <f>IF((B297=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16653,7 +16653,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="11.5">
+    <row r="298" spans="1:13" ht="11.25">
       <c r="A298" s="4" t="e">
         <f>IF((B298=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16707,7 +16707,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="11.5">
+    <row r="299" spans="1:13" ht="11.25">
       <c r="A299" s="4" t="e">
         <f>IF((B299=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16761,7 +16761,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="11.5">
+    <row r="300" spans="1:13" ht="11.25">
       <c r="A300" s="4" t="e">
         <f>IF((B300=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16815,7 +16815,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="11.5">
+    <row r="301" spans="1:13" ht="11.25">
       <c r="A301" s="4" t="e">
         <f>IF((B301=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16869,7 +16869,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="11.5">
+    <row r="302" spans="1:13" ht="11.25">
       <c r="A302" s="4" t="e">
         <f>IF((B302=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16923,7 +16923,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="11.5">
+    <row r="303" spans="1:13" ht="11.25">
       <c r="A303" s="4" t="e">
         <f>IF((B303=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -16977,7 +16977,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="11.5">
+    <row r="304" spans="1:13" ht="11.25">
       <c r="A304" s="4" t="e">
         <f>IF((B304=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17031,7 +17031,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="11.5">
+    <row r="305" spans="1:13" ht="11.25">
       <c r="A305" s="4" t="e">
         <f>IF((B305=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17085,7 +17085,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="11.5">
+    <row r="306" spans="1:13" ht="11.25">
       <c r="A306" s="4" t="e">
         <f>IF((B306=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17139,7 +17139,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="11.5">
+    <row r="307" spans="1:13" ht="11.25">
       <c r="A307" s="4" t="e">
         <f>IF((B307=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17193,7 +17193,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="11.5">
+    <row r="308" spans="1:13" ht="11.25">
       <c r="A308" s="4" t="e">
         <f>IF((B308=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17247,7 +17247,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="11.5">
+    <row r="309" spans="1:13" ht="11.25">
       <c r="A309" s="4" t="e">
         <f>IF((B309=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17301,7 +17301,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="11.5">
+    <row r="310" spans="1:13" ht="11.25">
       <c r="A310" s="4" t="e">
         <f>IF((B310=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17355,7 +17355,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="11.5">
+    <row r="311" spans="1:13" ht="11.25">
       <c r="A311" s="4" t="e">
         <f>IF((B311=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17409,7 +17409,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="11.5">
+    <row r="312" spans="1:13" ht="11.25">
       <c r="A312" s="4" t="e">
         <f>IF((B312=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17463,7 +17463,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="11.5">
+    <row r="313" spans="1:13" ht="11.25">
       <c r="A313" s="4" t="e">
         <f>IF((B313=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17517,7 +17517,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="11.5">
+    <row r="314" spans="1:13" ht="11.25">
       <c r="A314" s="4" t="e">
         <f>IF((B314=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17571,7 +17571,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="11.5">
+    <row r="315" spans="1:13" ht="11.25">
       <c r="A315" s="4" t="e">
         <f>IF((B315=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17625,7 +17625,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="11.5">
+    <row r="316" spans="1:13" ht="11.25">
       <c r="A316" s="4" t="e">
         <f>IF((B316=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17679,7 +17679,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="11.5">
+    <row r="317" spans="1:13" ht="11.25">
       <c r="A317" s="4" t="e">
         <f>IF((B317=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17733,7 +17733,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="11.5">
+    <row r="318" spans="1:13" ht="11.25">
       <c r="A318" s="4" t="e">
         <f>IF((B318=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17787,7 +17787,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="11.5">
+    <row r="319" spans="1:13" ht="11.25">
       <c r="A319" s="4" t="e">
         <f>IF((B319=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17841,7 +17841,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="11.5">
+    <row r="320" spans="1:13" ht="11.25">
       <c r="A320" s="4" t="e">
         <f>IF((B320=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17895,7 +17895,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="11.5">
+    <row r="321" spans="1:13" ht="11.25">
       <c r="A321" s="4" t="e">
         <f>IF((B321=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -17949,7 +17949,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="11.5">
+    <row r="322" spans="1:13" ht="11.25">
       <c r="A322" s="4" t="e">
         <f>IF((B322=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18003,7 +18003,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="11.5">
+    <row r="323" spans="1:13" ht="11.25">
       <c r="A323" s="4" t="e">
         <f>IF((B323=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18057,7 +18057,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="11.5">
+    <row r="324" spans="1:13" ht="11.25">
       <c r="A324" s="4" t="e">
         <f>IF((B324=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18111,7 +18111,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="11.5">
+    <row r="325" spans="1:13" ht="11.25">
       <c r="A325" s="4" t="e">
         <f>IF((B325=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18165,7 +18165,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="11.5">
+    <row r="326" spans="1:13" ht="11.25">
       <c r="A326" s="4" t="e">
         <f>IF((B326=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18219,7 +18219,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="11.5">
+    <row r="327" spans="1:13" ht="11.25">
       <c r="A327" s="4" t="e">
         <f>IF((B327=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18273,7 +18273,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="11.5">
+    <row r="328" spans="1:13" ht="11.25">
       <c r="A328" s="4" t="e">
         <f>IF((B328=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18327,7 +18327,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="11.5">
+    <row r="329" spans="1:13" ht="11.25">
       <c r="A329" s="4" t="e">
         <f>IF((B329=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18381,7 +18381,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="11.5">
+    <row r="330" spans="1:13" ht="11.25">
       <c r="A330" s="4" t="e">
         <f>IF((B330=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18435,7 +18435,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="11.5">
+    <row r="331" spans="1:13" ht="11.25">
       <c r="A331" s="4" t="e">
         <f>IF((B331=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18489,7 +18489,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="11.5">
+    <row r="332" spans="1:13" ht="11.25">
       <c r="A332" s="4" t="e">
         <f>IF((B332=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18543,7 +18543,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="11.5">
+    <row r="333" spans="1:13" ht="11.25">
       <c r="A333" s="4" t="e">
         <f>IF((B333=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18597,7 +18597,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="11.5">
+    <row r="334" spans="1:13" ht="11.25">
       <c r="A334" s="4" t="e">
         <f>IF((B334=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18651,7 +18651,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="11.5">
+    <row r="335" spans="1:13" ht="11.25">
       <c r="A335" s="4" t="e">
         <f>IF((B335=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18705,7 +18705,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="11.5">
+    <row r="336" spans="1:13" ht="11.25">
       <c r="A336" s="4" t="e">
         <f>IF((B336=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18759,7 +18759,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="11.5">
+    <row r="337" spans="1:13" ht="11.25">
       <c r="A337" s="4" t="e">
         <f>IF((B337=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18813,7 +18813,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="11.5">
+    <row r="338" spans="1:13" ht="11.25">
       <c r="A338" s="4" t="e">
         <f>IF((B338=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18867,7 +18867,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="11.5">
+    <row r="339" spans="1:13" ht="11.25">
       <c r="A339" s="4" t="e">
         <f>IF((B339=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18921,7 +18921,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="11.5">
+    <row r="340" spans="1:13" ht="11.25">
       <c r="A340" s="4" t="e">
         <f>IF((B340=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -18975,7 +18975,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="11.5">
+    <row r="341" spans="1:13" ht="11.25">
       <c r="A341" s="4" t="e">
         <f>IF((B341=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19029,7 +19029,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="11.5">
+    <row r="342" spans="1:13" ht="11.25">
       <c r="A342" s="4" t="e">
         <f>IF((B342=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19083,7 +19083,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="11.5">
+    <row r="343" spans="1:13" ht="11.25">
       <c r="A343" s="4" t="e">
         <f>IF((B343=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19137,7 +19137,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="11.5">
+    <row r="344" spans="1:13" ht="11.25">
       <c r="A344" s="4" t="e">
         <f>IF((B344=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19191,7 +19191,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="11.5">
+    <row r="345" spans="1:13" ht="11.25">
       <c r="A345" s="4" t="e">
         <f>IF((B345=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19245,7 +19245,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="11.5">
+    <row r="346" spans="1:13" ht="11.25">
       <c r="A346" s="4" t="e">
         <f>IF((B346=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19299,7 +19299,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="11.5">
+    <row r="347" spans="1:13" ht="11.25">
       <c r="A347" s="4" t="e">
         <f>IF((B347=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19353,7 +19353,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="11.5">
+    <row r="348" spans="1:13" ht="11.25">
       <c r="A348" s="4" t="e">
         <f>IF((B348=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19407,7 +19407,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="11.5">
+    <row r="349" spans="1:13" ht="11.25">
       <c r="A349" s="4" t="e">
         <f>IF((B349=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19461,7 +19461,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="11.5">
+    <row r="350" spans="1:13" ht="11.25">
       <c r="A350" s="4" t="e">
         <f>IF((B350=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19515,7 +19515,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="11.5">
+    <row r="351" spans="1:13" ht="11.25">
       <c r="A351" s="4" t="e">
         <f>IF((B351=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19569,7 +19569,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="11.5">
+    <row r="352" spans="1:13" ht="11.25">
       <c r="A352" s="4" t="e">
         <f>IF((B352=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19623,7 +19623,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="11.5">
+    <row r="353" spans="1:13" ht="11.25">
       <c r="A353" s="4" t="e">
         <f>IF((B353=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19677,7 +19677,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="11.5">
+    <row r="354" spans="1:13" ht="11.25">
       <c r="A354" s="4" t="e">
         <f>IF((B354=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19731,7 +19731,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="11.5">
+    <row r="355" spans="1:13" ht="11.25">
       <c r="A355" s="4" t="e">
         <f>IF((B355=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19785,7 +19785,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="11.5">
+    <row r="356" spans="1:13" ht="11.25">
       <c r="A356" s="4" t="e">
         <f>IF((B356=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19839,7 +19839,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="11.5">
+    <row r="357" spans="1:13" ht="11.25">
       <c r="A357" s="4" t="e">
         <f>IF((B357=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19893,7 +19893,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="11.5">
+    <row r="358" spans="1:13" ht="11.25">
       <c r="A358" s="4" t="e">
         <f>IF((B358=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -19947,7 +19947,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="11.5">
+    <row r="359" spans="1:13" ht="11.25">
       <c r="A359" s="4" t="e">
         <f>IF((B359=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20001,7 +20001,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="11.5">
+    <row r="360" spans="1:13" ht="11.25">
       <c r="A360" s="4" t="e">
         <f>IF((B360=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20055,7 +20055,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="11.5">
+    <row r="361" spans="1:13" ht="11.25">
       <c r="A361" s="4" t="e">
         <f>IF((B361=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20109,7 +20109,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="11.5">
+    <row r="362" spans="1:13" ht="11.25">
       <c r="A362" s="4" t="e">
         <f>IF((B362=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20163,7 +20163,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="11.5">
+    <row r="363" spans="1:13" ht="11.25">
       <c r="A363" s="4" t="e">
         <f>IF((B363=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20217,7 +20217,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="11.5">
+    <row r="364" spans="1:13" ht="11.25">
       <c r="A364" s="4" t="e">
         <f>IF((B364=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20271,7 +20271,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="11.5">
+    <row r="365" spans="1:13" ht="11.25">
       <c r="A365" s="4" t="e">
         <f>IF((B365=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20325,7 +20325,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="11.5">
+    <row r="366" spans="1:13" ht="11.25">
       <c r="A366" s="4" t="e">
         <f>IF((B366=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20379,7 +20379,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="11.5">
+    <row r="367" spans="1:13" ht="11.25">
       <c r="A367" s="4" t="e">
         <f>IF((B367=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20433,7 +20433,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="11.5">
+    <row r="368" spans="1:13" ht="11.25">
       <c r="A368" s="4" t="e">
         <f>IF((B368=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20487,7 +20487,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="11.5">
+    <row r="369" spans="1:13" ht="11.25">
       <c r="A369" s="4" t="e">
         <f>IF((B369=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20541,7 +20541,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="11.5">
+    <row r="370" spans="1:13" ht="11.25">
       <c r="A370" s="4" t="e">
         <f>IF((B370=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20595,7 +20595,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="11.5">
+    <row r="371" spans="1:13" ht="11.25">
       <c r="A371" s="4" t="e">
         <f>IF((B371=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20649,7 +20649,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="11.5">
+    <row r="372" spans="1:13" ht="11.25">
       <c r="A372" s="4" t="e">
         <f>IF((B372=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20703,7 +20703,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="11.5">
+    <row r="373" spans="1:13" ht="11.25">
       <c r="A373" s="4" t="e">
         <f>IF((B373=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20757,7 +20757,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="11.5">
+    <row r="374" spans="1:13" ht="11.25">
       <c r="A374" s="4" t="e">
         <f>IF((B374=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20811,7 +20811,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="11.5">
+    <row r="375" spans="1:13" ht="11.25">
       <c r="A375" s="4" t="e">
         <f>IF((B375=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20865,7 +20865,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="11.5">
+    <row r="376" spans="1:13" ht="11.25">
       <c r="A376" s="4" t="e">
         <f>IF((B376=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20919,7 +20919,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="11.5">
+    <row r="377" spans="1:13" ht="11.25">
       <c r="A377" s="4" t="e">
         <f>IF((B377=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -20973,7 +20973,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="11.5">
+    <row r="378" spans="1:13" ht="11.25">
       <c r="A378" s="4" t="e">
         <f>IF((B378=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21027,7 +21027,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="11.5">
+    <row r="379" spans="1:13" ht="11.25">
       <c r="A379" s="4" t="e">
         <f>IF((B379=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21081,7 +21081,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="11.5">
+    <row r="380" spans="1:13" ht="11.25">
       <c r="A380" s="4" t="e">
         <f>IF((B380=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21135,7 +21135,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="11.5">
+    <row r="381" spans="1:13" ht="11.25">
       <c r="A381" s="4" t="e">
         <f>IF((B381=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21189,7 +21189,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="11.5">
+    <row r="382" spans="1:13" ht="11.25">
       <c r="A382" s="4" t="e">
         <f>IF((B382=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21243,7 +21243,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="11.5">
+    <row r="383" spans="1:13" ht="11.25">
       <c r="A383" s="4" t="e">
         <f>IF((B383=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21297,7 +21297,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="11.5">
+    <row r="384" spans="1:13" ht="11.25">
       <c r="A384" s="4" t="e">
         <f>IF((B384=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21351,7 +21351,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="11.5">
+    <row r="385" spans="1:13" ht="11.25">
       <c r="A385" s="4" t="e">
         <f>IF((B385=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21405,7 +21405,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="11.5">
+    <row r="386" spans="1:13" ht="11.25">
       <c r="A386" s="4" t="e">
         <f>IF((B386=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21459,7 +21459,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="11.5">
+    <row r="387" spans="1:13" ht="11.25">
       <c r="A387" s="4" t="e">
         <f>IF((B387=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21513,7 +21513,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="388" spans="1:13" ht="11.5">
+    <row r="388" spans="1:13" ht="11.25">
       <c r="A388" s="4" t="e">
         <f>IF((B388=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21567,7 +21567,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="11.5">
+    <row r="389" spans="1:13" ht="11.25">
       <c r="A389" s="4" t="e">
         <f>IF((B389=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21621,7 +21621,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="390" spans="1:13" ht="11.5">
+    <row r="390" spans="1:13" ht="11.25">
       <c r="A390" s="4" t="e">
         <f>IF((B390=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21675,7 +21675,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="391" spans="1:13" ht="11.5">
+    <row r="391" spans="1:13" ht="11.25">
       <c r="A391" s="4" t="e">
         <f>IF((B391=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21729,7 +21729,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="11.5">
+    <row r="392" spans="1:13" ht="11.25">
       <c r="A392" s="4" t="e">
         <f>IF((B392=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21783,7 +21783,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="393" spans="1:13" ht="11.5">
+    <row r="393" spans="1:13" ht="11.25">
       <c r="A393" s="4" t="e">
         <f>IF((B393=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21837,7 +21837,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="394" spans="1:13" ht="11.5">
+    <row r="394" spans="1:13" ht="11.25">
       <c r="A394" s="4" t="e">
         <f>IF((B394=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21891,7 +21891,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="11.5">
+    <row r="395" spans="1:13" ht="11.25">
       <c r="A395" s="4" t="e">
         <f>IF((B395=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21945,7 +21945,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="396" spans="1:13" ht="11.5">
+    <row r="396" spans="1:13" ht="11.25">
       <c r="A396" s="4" t="e">
         <f>IF((B396=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -21999,7 +21999,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="397" spans="1:13" ht="11.5">
+    <row r="397" spans="1:13" ht="11.25">
       <c r="A397" s="4" t="e">
         <f>IF((B397=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22053,7 +22053,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="11.5">
+    <row r="398" spans="1:13" ht="11.25">
       <c r="A398" s="4" t="e">
         <f>IF((B398=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22107,7 +22107,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="399" spans="1:13" ht="11.5">
+    <row r="399" spans="1:13" ht="11.25">
       <c r="A399" s="4" t="e">
         <f>IF((B399=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22161,7 +22161,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="400" spans="1:13" ht="11.5">
+    <row r="400" spans="1:13" ht="11.25">
       <c r="A400" s="4" t="e">
         <f>IF((B400=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22215,7 +22215,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="11.5">
+    <row r="401" spans="1:13" ht="11.25">
       <c r="A401" s="4" t="e">
         <f>IF((B401=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22269,7 +22269,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="402" spans="1:13" ht="11.5">
+    <row r="402" spans="1:13" ht="11.25">
       <c r="A402" s="4" t="e">
         <f>IF((B402=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22323,7 +22323,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="403" spans="1:13" ht="11.5">
+    <row r="403" spans="1:13" ht="11.25">
       <c r="A403" s="4" t="e">
         <f>IF((B403=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22377,7 +22377,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="11.5">
+    <row r="404" spans="1:13" ht="11.25">
       <c r="A404" s="4" t="e">
         <f>IF((B404=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22431,7 +22431,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="405" spans="1:13" ht="11.5">
+    <row r="405" spans="1:13" ht="11.25">
       <c r="A405" s="4" t="e">
         <f>IF((B405=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22485,7 +22485,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="406" spans="1:13" ht="11.5">
+    <row r="406" spans="1:13" ht="11.25">
       <c r="A406" s="4" t="e">
         <f>IF((B406=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22539,7 +22539,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="11.5">
+    <row r="407" spans="1:13" ht="11.25">
       <c r="A407" s="4" t="e">
         <f>IF((B407=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22593,7 +22593,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="408" spans="1:13" ht="11.5">
+    <row r="408" spans="1:13" ht="11.25">
       <c r="A408" s="4" t="e">
         <f>IF((B408=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22647,7 +22647,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="409" spans="1:13" ht="11.5">
+    <row r="409" spans="1:13" ht="11.25">
       <c r="A409" s="4" t="e">
         <f>IF((B409=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22701,7 +22701,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="410" spans="1:13" ht="11.5">
+    <row r="410" spans="1:13" ht="11.25">
       <c r="A410" s="4" t="e">
         <f>IF((B410=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22755,7 +22755,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="411" spans="1:13" ht="11.5">
+    <row r="411" spans="1:13" ht="11.25">
       <c r="A411" s="4" t="e">
         <f>IF((B411=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22809,7 +22809,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="412" spans="1:13" ht="11.5">
+    <row r="412" spans="1:13" ht="11.25">
       <c r="A412" s="4" t="e">
         <f>IF((B412=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22863,7 +22863,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="413" spans="1:13" ht="11.5">
+    <row r="413" spans="1:13" ht="11.25">
       <c r="A413" s="4" t="e">
         <f>IF((B413=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22917,7 +22917,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="414" spans="1:13" ht="11.5">
+    <row r="414" spans="1:13" ht="11.25">
       <c r="A414" s="4" t="e">
         <f>IF((B414=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -22971,7 +22971,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="415" spans="1:13" ht="11.5">
+    <row r="415" spans="1:13" ht="11.25">
       <c r="A415" s="4" t="e">
         <f>IF((B415=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23025,7 +23025,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="416" spans="1:13" ht="11.5">
+    <row r="416" spans="1:13" ht="11.25">
       <c r="A416" s="4" t="e">
         <f>IF((B416=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23079,7 +23079,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="417" spans="1:13" ht="11.5">
+    <row r="417" spans="1:13" ht="11.25">
       <c r="A417" s="4" t="e">
         <f>IF((B417=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23133,7 +23133,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="418" spans="1:13" ht="11.5">
+    <row r="418" spans="1:13" ht="11.25">
       <c r="A418" s="4" t="e">
         <f>IF((B418=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23187,7 +23187,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="419" spans="1:13" ht="11.5">
+    <row r="419" spans="1:13" ht="11.25">
       <c r="A419" s="4" t="e">
         <f>IF((B419=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23241,7 +23241,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="420" spans="1:13" ht="11.5">
+    <row r="420" spans="1:13" ht="11.25">
       <c r="A420" s="4" t="e">
         <f>IF((B420=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23295,7 +23295,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="421" spans="1:13" ht="11.5">
+    <row r="421" spans="1:13" ht="11.25">
       <c r="A421" s="4" t="e">
         <f>IF((B421=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23349,7 +23349,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="422" spans="1:13" ht="11.5">
+    <row r="422" spans="1:13" ht="11.25">
       <c r="A422" s="4" t="e">
         <f>IF((B422=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23403,7 +23403,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="423" spans="1:13" ht="11.5">
+    <row r="423" spans="1:13" ht="11.25">
       <c r="A423" s="4" t="e">
         <f>IF((B423=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23457,7 +23457,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="424" spans="1:13" ht="11.5">
+    <row r="424" spans="1:13" ht="11.25">
       <c r="A424" s="4" t="e">
         <f>IF((B424=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23511,7 +23511,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="425" spans="1:13" ht="11.5">
+    <row r="425" spans="1:13" ht="11.25">
       <c r="A425" s="4" t="e">
         <f>IF((B425=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23565,7 +23565,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="426" spans="1:13" ht="11.5">
+    <row r="426" spans="1:13" ht="11.25">
       <c r="A426" s="4" t="e">
         <f>IF((B426=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23619,7 +23619,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="427" spans="1:13" ht="11.5">
+    <row r="427" spans="1:13" ht="11.25">
       <c r="A427" s="4" t="e">
         <f>IF((B427=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23673,7 +23673,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="428" spans="1:13" ht="11.5">
+    <row r="428" spans="1:13" ht="11.25">
       <c r="A428" s="4" t="e">
         <f>IF((B428=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23727,7 +23727,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="429" spans="1:13" ht="11.5">
+    <row r="429" spans="1:13" ht="11.25">
       <c r="A429" s="4" t="e">
         <f>IF((B429=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23781,7 +23781,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="430" spans="1:13" ht="11.5">
+    <row r="430" spans="1:13" ht="11.25">
       <c r="A430" s="4" t="e">
         <f>IF((B430=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23835,7 +23835,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="431" spans="1:13" ht="11.5">
+    <row r="431" spans="1:13" ht="11.25">
       <c r="A431" s="4" t="e">
         <f>IF((B431=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23889,7 +23889,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="432" spans="1:13" ht="11.5">
+    <row r="432" spans="1:13" ht="11.25">
       <c r="A432" s="4" t="e">
         <f>IF((B432=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23943,7 +23943,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="433" spans="1:13" ht="11.5">
+    <row r="433" spans="1:13" ht="11.25">
       <c r="A433" s="4" t="e">
         <f>IF((B433=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -23997,7 +23997,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="434" spans="1:13" ht="11.5">
+    <row r="434" spans="1:13" ht="11.25">
       <c r="A434" s="4" t="e">
         <f>IF((B434=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24051,7 +24051,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="435" spans="1:13" ht="11.5">
+    <row r="435" spans="1:13" ht="11.25">
       <c r="A435" s="4" t="e">
         <f>IF((B435=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24105,7 +24105,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="436" spans="1:13" ht="11.5">
+    <row r="436" spans="1:13" ht="11.25">
       <c r="A436" s="4" t="e">
         <f>IF((B436=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24159,7 +24159,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="437" spans="1:13" ht="11.5">
+    <row r="437" spans="1:13" ht="11.25">
       <c r="A437" s="4" t="e">
         <f>IF((B437=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24213,7 +24213,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="11.5">
+    <row r="438" spans="1:13" ht="11.25">
       <c r="A438" s="4" t="e">
         <f>IF((B438=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24267,7 +24267,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="11.5">
+    <row r="439" spans="1:13" ht="11.25">
       <c r="A439" s="4" t="e">
         <f>IF((B439=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24321,7 +24321,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="11.5">
+    <row r="440" spans="1:13" ht="11.25">
       <c r="A440" s="4" t="e">
         <f>IF((B440=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24375,7 +24375,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="441" spans="1:13" ht="11.5">
+    <row r="441" spans="1:13" ht="11.25">
       <c r="A441" s="4" t="e">
         <f>IF((B441=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24429,7 +24429,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="11.5">
+    <row r="442" spans="1:13" ht="11.25">
       <c r="A442" s="4" t="e">
         <f>IF((B442=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24483,7 +24483,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="11.5">
+    <row r="443" spans="1:13" ht="11.25">
       <c r="A443" s="4" t="e">
         <f>IF((B443=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24537,7 +24537,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="444" spans="1:13" ht="11.5">
+    <row r="444" spans="1:13" ht="11.25">
       <c r="A444" s="4" t="e">
         <f>IF((B444=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24591,7 +24591,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="445" spans="1:13" ht="11.5">
+    <row r="445" spans="1:13" ht="11.25">
       <c r="A445" s="4" t="e">
         <f>IF((B445=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24645,7 +24645,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="11.5">
+    <row r="446" spans="1:13" ht="11.25">
       <c r="A446" s="4" t="e">
         <f>IF((B446=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24699,7 +24699,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="447" spans="1:13" ht="11.5">
+    <row r="447" spans="1:13" ht="11.25">
       <c r="A447" s="4" t="e">
         <f>IF((B447=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24753,7 +24753,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="448" spans="1:13" ht="11.5">
+    <row r="448" spans="1:13" ht="11.25">
       <c r="A448" s="4" t="e">
         <f>IF((B448=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24807,7 +24807,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="449" spans="1:13" ht="11.5">
+    <row r="449" spans="1:13" ht="11.25">
       <c r="A449" s="4" t="e">
         <f>IF((B449=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24861,7 +24861,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="450" spans="1:13" ht="11.5">
+    <row r="450" spans="1:13" ht="11.25">
       <c r="A450" s="4" t="e">
         <f>IF((B450=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24915,7 +24915,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="451" spans="1:13" ht="11.5">
+    <row r="451" spans="1:13" ht="11.25">
       <c r="A451" s="4" t="e">
         <f>IF((B451=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -24969,7 +24969,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="452" spans="1:13" ht="11.5">
+    <row r="452" spans="1:13" ht="11.25">
       <c r="A452" s="4" t="e">
         <f>IF((B452=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25023,7 +25023,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="453" spans="1:13" ht="11.5">
+    <row r="453" spans="1:13" ht="11.25">
       <c r="A453" s="4" t="e">
         <f>IF((B453=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25077,7 +25077,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="454" spans="1:13" ht="11.5">
+    <row r="454" spans="1:13" ht="11.25">
       <c r="A454" s="4" t="e">
         <f>IF((B454=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25131,7 +25131,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="455" spans="1:13" ht="11.5">
+    <row r="455" spans="1:13" ht="11.25">
       <c r="A455" s="4" t="e">
         <f>IF((B455=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25185,7 +25185,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="456" spans="1:13" ht="11.5">
+    <row r="456" spans="1:13" ht="11.25">
       <c r="A456" s="4" t="e">
         <f>IF((B456=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25239,7 +25239,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="457" spans="1:13" ht="11.5">
+    <row r="457" spans="1:13" ht="11.25">
       <c r="A457" s="4" t="e">
         <f>IF((B457=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25293,7 +25293,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="458" spans="1:13" ht="11.5">
+    <row r="458" spans="1:13" ht="11.25">
       <c r="A458" s="4" t="e">
         <f>IF((B458=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25347,7 +25347,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="459" spans="1:13" ht="11.5">
+    <row r="459" spans="1:13" ht="11.25">
       <c r="A459" s="4" t="e">
         <f>IF((B459=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25401,7 +25401,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="460" spans="1:13" ht="11.5">
+    <row r="460" spans="1:13" ht="11.25">
       <c r="A460" s="4" t="e">
         <f>IF((B460=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25455,7 +25455,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="461" spans="1:13" ht="11.5">
+    <row r="461" spans="1:13" ht="11.25">
       <c r="A461" s="4" t="e">
         <f>IF((B461=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25509,7 +25509,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="462" spans="1:13" ht="11.5">
+    <row r="462" spans="1:13" ht="11.25">
       <c r="A462" s="4" t="e">
         <f>IF((B462=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25563,7 +25563,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="463" spans="1:13" ht="11.5">
+    <row r="463" spans="1:13" ht="11.25">
       <c r="A463" s="4" t="e">
         <f>IF((B463=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25617,7 +25617,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="11.5">
+    <row r="464" spans="1:13" ht="11.25">
       <c r="A464" s="4" t="e">
         <f>IF((B464=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25671,7 +25671,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="465" spans="1:13" ht="11.5">
+    <row r="465" spans="1:13" ht="11.25">
       <c r="A465" s="4" t="e">
         <f>IF((B465=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25725,7 +25725,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="466" spans="1:13" ht="11.5">
+    <row r="466" spans="1:13" ht="11.25">
       <c r="A466" s="4" t="e">
         <f>IF((B466=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25779,7 +25779,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="467" spans="1:13" ht="11.5">
+    <row r="467" spans="1:13" ht="11.25">
       <c r="A467" s="4" t="e">
         <f>IF((B467=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25833,7 +25833,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="468" spans="1:13" ht="11.5">
+    <row r="468" spans="1:13" ht="11.25">
       <c r="A468" s="4" t="e">
         <f>IF((B468=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25887,7 +25887,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="469" spans="1:13" ht="11.5">
+    <row r="469" spans="1:13" ht="11.25">
       <c r="A469" s="4" t="e">
         <f>IF((B469=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25941,7 +25941,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="470" spans="1:13" ht="11.5">
+    <row r="470" spans="1:13" ht="11.25">
       <c r="A470" s="4" t="e">
         <f>IF((B470=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -25995,7 +25995,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="471" spans="1:13" ht="11.5">
+    <row r="471" spans="1:13" ht="11.25">
       <c r="A471" s="4" t="e">
         <f>IF((B471=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26049,7 +26049,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="472" spans="1:13" ht="11.5">
+    <row r="472" spans="1:13" ht="11.25">
       <c r="A472" s="4" t="e">
         <f>IF((B472=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26103,7 +26103,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="473" spans="1:13" ht="11.5">
+    <row r="473" spans="1:13" ht="11.25">
       <c r="A473" s="4" t="e">
         <f>IF((B473=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26157,7 +26157,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="474" spans="1:13" ht="11.5">
+    <row r="474" spans="1:13" ht="11.25">
       <c r="A474" s="4" t="e">
         <f>IF((B474=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26211,7 +26211,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="475" spans="1:13" ht="11.5">
+    <row r="475" spans="1:13" ht="11.25">
       <c r="A475" s="4" t="e">
         <f>IF((B475=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26265,7 +26265,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="476" spans="1:13" ht="11.5">
+    <row r="476" spans="1:13" ht="11.25">
       <c r="A476" s="4" t="e">
         <f>IF((B476=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26319,7 +26319,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="477" spans="1:13" ht="11.5">
+    <row r="477" spans="1:13" ht="11.25">
       <c r="A477" s="4" t="e">
         <f>IF((B477=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26373,7 +26373,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="478" spans="1:13" ht="11.5">
+    <row r="478" spans="1:13" ht="11.25">
       <c r="A478" s="4" t="e">
         <f>IF((B478=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26427,7 +26427,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="479" spans="1:13" ht="11.5">
+    <row r="479" spans="1:13" ht="11.25">
       <c r="A479" s="4" t="e">
         <f>IF((B479=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26481,7 +26481,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="480" spans="1:13" ht="11.5">
+    <row r="480" spans="1:13" ht="11.25">
       <c r="A480" s="4" t="e">
         <f>IF((B480=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26535,7 +26535,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="481" spans="1:13" ht="11.5">
+    <row r="481" spans="1:13" ht="11.25">
       <c r="A481" s="4" t="e">
         <f>IF((B481=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26589,7 +26589,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="482" spans="1:13" ht="11.5">
+    <row r="482" spans="1:13" ht="11.25">
       <c r="A482" s="4" t="e">
         <f>IF((B482=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26643,7 +26643,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="11.5">
+    <row r="483" spans="1:13" ht="11.25">
       <c r="A483" s="4" t="e">
         <f>IF((B483=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26697,7 +26697,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="484" spans="1:13" ht="11.5">
+    <row r="484" spans="1:13" ht="11.25">
       <c r="A484" s="4" t="e">
         <f>IF((B484=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26751,7 +26751,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="485" spans="1:13" ht="11.5">
+    <row r="485" spans="1:13" ht="11.25">
       <c r="A485" s="4" t="e">
         <f>IF((B485=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26805,7 +26805,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="486" spans="1:13" ht="11.5">
+    <row r="486" spans="1:13" ht="11.25">
       <c r="A486" s="4" t="e">
         <f>IF((B486=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26859,7 +26859,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="487" spans="1:13" ht="11.5">
+    <row r="487" spans="1:13" ht="11.25">
       <c r="A487" s="4" t="e">
         <f>IF((B487=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26913,7 +26913,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="11.5">
+    <row r="488" spans="1:13" ht="11.25">
       <c r="A488" s="4" t="e">
         <f>IF((B488=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -26967,7 +26967,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="489" spans="1:13" ht="11.5">
+    <row r="489" spans="1:13" ht="11.25">
       <c r="A489" s="4" t="e">
         <f>IF((B489=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27021,7 +27021,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="490" spans="1:13" ht="11.5">
+    <row r="490" spans="1:13" ht="11.25">
       <c r="A490" s="4" t="e">
         <f>IF((B490=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27075,7 +27075,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="491" spans="1:13" ht="11.5">
+    <row r="491" spans="1:13" ht="11.25">
       <c r="A491" s="4" t="e">
         <f>IF((B491=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27129,7 +27129,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="492" spans="1:13" ht="11.5">
+    <row r="492" spans="1:13" ht="11.25">
       <c r="A492" s="4" t="e">
         <f>IF((B492=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27183,7 +27183,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="493" spans="1:13" ht="11.5">
+    <row r="493" spans="1:13" ht="11.25">
       <c r="A493" s="4" t="e">
         <f>IF((B493=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27237,7 +27237,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="494" spans="1:13" ht="11.5">
+    <row r="494" spans="1:13" ht="11.25">
       <c r="A494" s="4" t="e">
         <f>IF((B494=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27291,7 +27291,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="495" spans="1:13" ht="11.5">
+    <row r="495" spans="1:13" ht="11.25">
       <c r="A495" s="4" t="e">
         <f>IF((B495=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27345,7 +27345,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="496" spans="1:13" ht="11.5">
+    <row r="496" spans="1:13" ht="11.25">
       <c r="A496" s="4" t="e">
         <f>IF((B496=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27399,7 +27399,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="497" spans="1:13" ht="11.5">
+    <row r="497" spans="1:13" ht="11.25">
       <c r="A497" s="4" t="e">
         <f>IF((B497=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27453,7 +27453,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="498" spans="1:13" ht="11.5">
+    <row r="498" spans="1:13" ht="11.25">
       <c r="A498" s="4" t="e">
         <f>IF((B498=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27507,7 +27507,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="499" spans="1:13" ht="11.5">
+    <row r="499" spans="1:13" ht="11.25">
       <c r="A499" s="4" t="e">
         <f>IF((B499=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27561,7 +27561,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="500" spans="1:13" ht="11.5">
+    <row r="500" spans="1:13" ht="11.25">
       <c r="A500" s="4" t="e">
         <f>IF((B500=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27615,7 +27615,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="501" spans="1:13" ht="11.5">
+    <row r="501" spans="1:13" ht="11.25">
       <c r="A501" s="4" t="e">
         <f>IF((B501=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27669,7 +27669,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="502" spans="1:13" ht="11.5">
+    <row r="502" spans="1:13" ht="11.25">
       <c r="A502" s="4" t="e">
         <f>IF((B502=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27723,7 +27723,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="503" spans="1:13" ht="11.5">
+    <row r="503" spans="1:13" ht="11.25">
       <c r="A503" s="4" t="e">
         <f>IF((B503=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27777,7 +27777,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="504" spans="1:13" ht="11.5">
+    <row r="504" spans="1:13" ht="11.25">
       <c r="A504" s="4" t="e">
         <f>IF((B504=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27831,7 +27831,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="505" spans="1:13" ht="11.5">
+    <row r="505" spans="1:13" ht="11.25">
       <c r="A505" s="4" t="e">
         <f>IF((B505=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27885,7 +27885,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="506" spans="1:13" ht="11.5">
+    <row r="506" spans="1:13" ht="11.25">
       <c r="A506" s="4" t="e">
         <f>IF((B506=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27939,7 +27939,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="507" spans="1:13" ht="11.5">
+    <row r="507" spans="1:13" ht="11.25">
       <c r="A507" s="4" t="e">
         <f>IF((B507=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -27993,7 +27993,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="508" spans="1:13" ht="11.5">
+    <row r="508" spans="1:13" ht="11.25">
       <c r="A508" s="4" t="e">
         <f>IF((B508=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -28047,7 +28047,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="509" spans="1:13" ht="11.5">
+    <row r="509" spans="1:13" ht="11.25">
       <c r="A509" s="4" t="e">
         <f>IF((B509=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -28101,7 +28101,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="510" spans="1:13" ht="11.5">
+    <row r="510" spans="1:13" ht="11.25">
       <c r="A510" s="4" t="e">
         <f>IF((B510=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -28155,7 +28155,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="511" spans="1:13" ht="11.5">
+    <row r="511" spans="1:13" ht="11.25">
       <c r="A511" s="4" t="e">
         <f>IF((B511=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
@@ -28209,7 +28209,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="512" spans="1:13" ht="11.5">
+    <row r="512" spans="1:13" ht="11.25">
       <c r="A512" s="4" t="e">
         <f>IF((B512=" ")," ",IF((#REF!=0)," ",#REF!))</f>
         <v>#REF!</v>
